--- a/GOVERNANÇA E MELHORES PRÁTICAS EM TI/AULA 1109/FerramentaFPA-ProfRJP-Manual.xlsx
+++ b/GOVERNANÇA E MELHORES PRÁTICAS EM TI/AULA 1109/FerramentaFPA-ProfRJP-Manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55860688-6851-40D8-A08C-D1AC03F98A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87C0A17-0108-4D78-9269-34BD3D75BF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
   <si>
     <t>FERRAMENTA DE ESTIATIVA DE PONTOS DE SOFTWARE POR ANÁLISE DE PONTOS DE FUNÇÃO (FPA - FUNCTION POINT ANALYSIS)</t>
   </si>
@@ -240,6 +240,15 @@
   </si>
   <si>
     <t>Base de dados de produto, Base de export de produto</t>
+  </si>
+  <si>
+    <t>Registro de produto</t>
+  </si>
+  <si>
+    <t>Registro de histórico de preço</t>
+  </si>
+  <si>
+    <t>Registro de export de produto</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1464,7 @@
   <dimension ref="A1:H243"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,8 +1698,12 @@
       <c r="B17" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="31"/>
+      <c r="C17" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="31">
+        <v>1</v>
+      </c>
       <c r="E17" s="33"/>
       <c r="F17" s="31"/>
       <c r="G17" s="34"/>
@@ -1703,8 +1716,12 @@
       <c r="B18" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="31"/>
+      <c r="C18" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="31">
+        <v>1</v>
+      </c>
       <c r="E18" s="33"/>
       <c r="F18" s="31"/>
       <c r="G18" s="34"/>
@@ -1717,7 +1734,9 @@
       <c r="B19" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="36"/>
+      <c r="C19" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="D19" s="31"/>
       <c r="E19" s="33"/>
       <c r="F19" s="31"/>
